--- a/Applications/ConsumerApi/test/ConsumerApi.Tests.Performance/tools/snapshot-creator-v2/Docs/Proof/Snapshot-TEST.20241120-074611/PoolConfig/pool-config.test.xlsx
+++ b/Applications/ConsumerApi/test/ConsumerApi.Tests.Performance/tools/snapshot-creator-v2/Docs/Proof/Snapshot-TEST.20241120-074611/PoolConfig/pool-config.test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErichJS\Desktop\Snapshot-TEST.20241120-074611\PoolConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-js\backbone\Applications\ConsumerApi\test\ConsumerApi.Tests.Performance\tools\snapshot-creator-v2\Docs\Proof\Snapshot-TEST.20241120-074611\PoolConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B1186D-BCA0-4907-B1A3-1D9909144FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D901D7-E64A-49E5-9EC7-4C1F07FBBDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="285" windowWidth="29715" windowHeight="8325" tabRatio="464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Type</t>
   </si>
@@ -119,16 +119,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>Count Identity</t>
-  </si>
-  <si>
     <t>Count RelationshipTemplates</t>
   </si>
   <si>
     <t>Total Count</t>
-  </si>
-  <si>
-    <t>checked</t>
   </si>
   <si>
     <t>Count Relationships</t>
@@ -167,6 +161,12 @@
   </si>
   <si>
     <t>Count DatawalletModifications</t>
+  </si>
+  <si>
+    <t>Count Devices</t>
+  </si>
+  <si>
+    <t>Count Identities</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -287,8 +287,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -302,7 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -638,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N27" sqref="N27"/>
+      <selection pane="topRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,15 +658,16 @@
     <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" customWidth="1"/>
-    <col min="18" max="18" width="46" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" customWidth="1"/>
+    <col min="19" max="19" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,25 +702,28 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -750,35 +754,39 @@
       <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="M2" s="1">
+        <f>D2</f>
+        <v>5</v>
+      </c>
+      <c r="N2" s="1">
         <f>D2*J2</f>
         <v>5</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N7" si="0">D2*E2</f>
-        <v>0</v>
-      </c>
       <c r="O2" s="1">
-        <f>D2*F2</f>
+        <f t="shared" ref="O2:O7" si="0">D2*E2</f>
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <f>D2*K2</f>
+        <f t="shared" ref="P2:P7" si="1">D2*F2</f>
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <f>D2*G2</f>
+        <f t="shared" ref="Q2:Q8" si="2">D2*K2</f>
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <f>D2*I2</f>
+        <f t="shared" ref="R2:R8" si="3">D2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" ref="S2:S8" si="4">D2*I2</f>
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -809,35 +817,39 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="M3" s="2">
+        <f>D3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
         <f>D3*J3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="19">
+      <c r="O3" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="2">
-        <f>D3*F3</f>
-        <v>1</v>
-      </c>
       <c r="P3" s="2">
-        <f>D3*K3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <f>D3*G3</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
-        <f>D3*I3</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -872,304 +884,322 @@
         <v>10</v>
       </c>
       <c r="M4" s="5">
+        <f>D4</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
         <f>D4*J4</f>
         <v>6</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="5">
-        <f>D4*F4</f>
+      <c r="P4" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P4" s="5">
-        <f>D4*K4</f>
+      <c r="Q4" s="5">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q4" s="5">
-        <f>D4*G4</f>
+      <c r="R4" s="5">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="R4" s="5">
-        <f>D4*I4</f>
+      <c r="S4" s="5">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>4</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>12</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>11</v>
       </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
         <v>3</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>20</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
+        <f>D5</f>
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
         <f>D5*J5</f>
         <v>9</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="9">
-        <f>D5*F5</f>
+      <c r="P5" s="7">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P5" s="9">
-        <f>D5*K5</f>
+      <c r="Q5" s="7">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="Q5" s="9">
-        <f>D5*G5</f>
+      <c r="R5" s="7">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="R5" s="9">
-        <f>D5*I5</f>
+      <c r="S5" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <f>D6</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
         <f>D6*J6</f>
         <v>1</v>
       </c>
-      <c r="N6" s="11">
+      <c r="O6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O6" s="11">
-        <f>D6*F6</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="11">
-        <f>D6*K6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <f>D6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <f>D6*I6</f>
+      <c r="P6" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>20</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>3</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>8</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>5</v>
       </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
         <v>20</v>
       </c>
-      <c r="M7" s="13">
-        <f t="shared" ref="M7:M8" si="1">D7*J7</f>
+      <c r="M7" s="11">
+        <f>D7</f>
         <v>2</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
+        <f t="shared" ref="N7:N8" si="5">D7*J7</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O7" s="13">
-        <f>D7*F7</f>
+      <c r="P7" s="11">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P7" s="13">
-        <f>D7*K7</f>
+      <c r="Q7" s="11">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="Q7" s="13">
-        <f>D7*G7</f>
+      <c r="R7" s="11">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="R7" s="13">
-        <f>D7*I7</f>
+      <c r="S7" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>4</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>30</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>4</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>8</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>9</v>
       </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
         <v>30</v>
       </c>
-      <c r="M8" s="15">
-        <f t="shared" si="1"/>
+      <c r="M8" s="13">
+        <f>D8</f>
         <v>4</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="13">
         <f>D8*E8</f>
         <v>120</v>
       </c>
-      <c r="O8" s="15">
+      <c r="P8" s="13">
         <f>F8*D8</f>
         <v>16</v>
       </c>
-      <c r="P8" s="15">
-        <f>D8*K8</f>
+      <c r="Q8" s="13">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="Q8" s="15">
-        <f>D8*G8</f>
+      <c r="R8" s="13">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="R8" s="15">
-        <f>D8*I8</f>
+      <c r="S8" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L10" s="17" t="s">
-        <v>30</v>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L10" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="M10" s="18">
         <f>SUM(M2:M8)</f>
+        <v>19</v>
+      </c>
+      <c r="N10" s="16">
+        <f>SUM(N2:N8)</f>
         <v>28</v>
       </c>
-      <c r="N10" s="18">
-        <f>SUM(N2:N8)</f>
+      <c r="O10" s="16">
+        <f>SUM(O2:O8)</f>
         <v>161</v>
       </c>
-      <c r="O10" s="18">
-        <f>SUM(O3:O5)</f>
+      <c r="P10" s="16">
+        <f>SUM(P3:P5)</f>
         <v>19</v>
       </c>
-      <c r="P10" s="18">
-        <f>SUM(P2:P8)</f>
+      <c r="Q10" s="16">
+        <f>SUM(Q2:Q8)</f>
         <v>251</v>
       </c>
-      <c r="Q10" s="18">
-        <f>SUM(Q2:Q8)</f>
+      <c r="R10" s="16">
+        <f>SUM(R2:R8)</f>
         <v>96</v>
       </c>
-      <c r="R10" s="18">
-        <f>SUM(R2:R8)</f>
+      <c r="S10" s="16">
+        <f>SUM(S2:S8)</f>
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M11" s="20" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
         <v>31</v>
-      </c>
-      <c r="N11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
